--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2767092.401942157</v>
+        <v>2764547.809247874</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8791972.794549162</v>
+        <v>8791972.79454916</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>150.1450882057759</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.72734108435045</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>68.87499921065181</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52.21594625443444</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>52.21594625443466</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>366.129008342081</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>409.6498669819966</v>
+        <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425966</v>
+        <v>23.94240680425906</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372557</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.47037835246131</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074793</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>196.3506765114983</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>2.934209813009423</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>15.22601502246752</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836598</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>36.91115760589153</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>72.89889574101042</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>264.6124069403321</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708285</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696038</v>
+        <v>73.3060933472114</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,16 +1212,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>20.27697994470972</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>113.5548005097655</v>
       </c>
     </row>
     <row r="10">
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>31.68046530976962</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>142.7102789975397</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.7518808581214</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>21.63824106824919</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016454</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>141.8888082957372</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>126.3436347319666</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>19.17715139986178</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.4044447618827</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3661,19 +3661,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>19.88691958258267</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>41.01175877060099</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795604</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>482.8222414097404</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="C2" t="n">
-        <v>482.8222414097404</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="D2" t="n">
-        <v>482.8222414097404</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="E2" t="n">
-        <v>482.8222414097404</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513809</v>
+        <v>154.9708857107124</v>
       </c>
       <c r="G2" t="n">
         <v>141.7407511348962</v>
@@ -4325,55 +4325,55 @@
         <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>730.1757415093707</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262252</v>
+        <v>540.7559564928857</v>
       </c>
       <c r="U2" t="n">
-        <v>482.8222414097404</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097404</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097404</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="X2" t="n">
-        <v>482.8222414097404</v>
+        <v>161.9163864599159</v>
       </c>
       <c r="Y2" t="n">
-        <v>482.8222414097404</v>
+        <v>161.9163864599159</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>322.8965203553411</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>322.8965203553411</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>322.8965203553411</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>322.8965203553411</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>176.361962382226</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>176.361962382226</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652795</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652795</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="V3" t="n">
-        <v>680.5316423918938</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W3" t="n">
-        <v>491.1118573754091</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X3" t="n">
-        <v>491.1118573754091</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y3" t="n">
-        <v>491.1118573754091</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230183</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170716</v>
+        <v>42.98993985170729</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396334</v>
+        <v>66.41847329396353</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828987</v>
+        <v>67.74542702829011</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828987</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.042071030876</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="C5" t="n">
-        <v>841.0795540904644</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="D5" t="n">
-        <v>841.0795540904644</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="E5" t="n">
-        <v>455.2913014922202</v>
+        <v>769.2632952533581</v>
       </c>
       <c r="F5" t="n">
-        <v>448.3458007430167</v>
+        <v>358.2773904637505</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675749</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017212</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746964</v>
+        <v>277.9807166746987</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030735</v>
+        <v>521.2049416030771</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709136</v>
+        <v>823.5081935709192</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582746</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079232</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332749</v>
+        <v>1621.822248332759</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837874</v>
+        <v>1727.902815837885</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540642</v>
+        <v>1703.718566540654</v>
       </c>
       <c r="S5" t="n">
-        <v>1562.81072630099</v>
+        <v>1703.718566540654</v>
       </c>
       <c r="T5" t="n">
-        <v>1562.81072630099</v>
+        <v>1491.859231677089</v>
       </c>
       <c r="U5" t="n">
-        <v>1562.81072630099</v>
+        <v>1491.859231677089</v>
       </c>
       <c r="V5" t="n">
-        <v>1562.81072630099</v>
+        <v>1491.859231677089</v>
       </c>
       <c r="W5" t="n">
-        <v>1210.042071030876</v>
+        <v>1139.090576406975</v>
       </c>
       <c r="X5" t="n">
-        <v>1210.042071030876</v>
+        <v>1139.090576406975</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.042071030876</v>
+        <v>1139.090576406975</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377063</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565793</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="D6" t="n">
-        <v>340.330069295328</v>
+        <v>428.3223248269011</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898725</v>
+        <v>269.0848698214456</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675749</v>
+        <v>269.0848698214456</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675749</v>
+        <v>132.0028829354055</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J6" t="n">
-        <v>61.6678846478747</v>
+        <v>61.6678846478754</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806049</v>
+        <v>186.1577239806064</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189955</v>
+        <v>399.8722171189981</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223466</v>
+        <v>668.6238185223505</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352432</v>
+        <v>958.8971200352485</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228313</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639502</v>
+        <v>1378.176233639509</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906542</v>
+        <v>1445.87866090655</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906542</v>
+        <v>1401.100270703774</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906542</v>
+        <v>1258.30937869937</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906542</v>
+        <v>1062.768760419125</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906542</v>
+        <v>834.6536183746811</v>
       </c>
       <c r="V6" t="n">
-        <v>1247.544644228261</v>
+        <v>599.5015101429383</v>
       </c>
       <c r="W6" t="n">
-        <v>1247.544644228261</v>
+        <v>599.5015101429383</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.693144022728</v>
+        <v>596.5376618469692</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577743</v>
+        <v>596.5376618469692</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.819049585797</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="C7" t="n">
-        <v>369.819049585797</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="D7" t="n">
-        <v>369.819049585797</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="E7" t="n">
-        <v>369.819049585797</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="F7" t="n">
-        <v>354.4392364317894</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="G7" t="n">
-        <v>186.1337093305552</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675749</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574626</v>
+        <v>64.24066662574695</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584103</v>
+        <v>132.1299861584116</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347954</v>
+        <v>206.9680378347974</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195342</v>
+        <v>287.8841338195369</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934687</v>
+        <v>342.310156193472</v>
       </c>
       <c r="P7" t="n">
-        <v>369.819049585797</v>
+        <v>369.8190495858008</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.819049585797</v>
+        <v>332.5350520040922</v>
       </c>
       <c r="R7" t="n">
-        <v>369.819049585797</v>
+        <v>332.5350520040922</v>
       </c>
       <c r="S7" t="n">
-        <v>369.819049585797</v>
+        <v>332.5350520040922</v>
       </c>
       <c r="T7" t="n">
-        <v>369.819049585797</v>
+        <v>108.1933045400006</v>
       </c>
       <c r="U7" t="n">
-        <v>369.819049585797</v>
+        <v>108.1933045400006</v>
       </c>
       <c r="V7" t="n">
-        <v>369.819049585797</v>
+        <v>108.1933045400006</v>
       </c>
       <c r="W7" t="n">
-        <v>369.819049585797</v>
+        <v>108.1933045400006</v>
       </c>
       <c r="X7" t="n">
-        <v>369.819049585797</v>
+        <v>34.55805631675771</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.819049585797</v>
+        <v>34.55805631675771</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.546657016639</v>
+        <v>727.9718500352691</v>
       </c>
       <c r="C8" t="n">
-        <v>812.5841400762276</v>
+        <v>727.9718500352691</v>
       </c>
       <c r="D8" t="n">
-        <v>545.2988805405387</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405387</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509311</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301905</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232728</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711882</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.9606125456</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172451</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904657</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.285829056573</v>
+        <v>2094.413267968076</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.285829056573</v>
+        <v>1840.806103630585</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.285829056573</v>
+        <v>1840.806103630585</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.285829056573</v>
+        <v>1488.037448360471</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.285829056573</v>
+        <v>1114.571690099391</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.146497080761</v>
+        <v>1114.571690099391</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.528648459042</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="C9" t="n">
-        <v>498.075619177915</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166637</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112082</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562345</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504525</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104405</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789504</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128149</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.75304868905</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.22704733349</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.22704733349</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.22704733349</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1745.745249409541</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791101</v>
+        <v>360.5189432194123</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307324</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183966</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360035</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809315</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981551</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.141159492734</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377471</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033672</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406007</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406007</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470406007</v>
+        <v>411.1248508126813</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470406007</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470406007</v>
+        <v>187.5209935053049</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470406007</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400726</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2425.106274420413</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2242.251440075317</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>2022.649975098258</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1733.574748442456</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1478.890260236569</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1189.473090199608</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138424</v>
+        <v>961.4835393015907</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703123</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="17">
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5753,16 +5753,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,25 +6066,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6309,22 +6309,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="29">
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6549,19 +6549,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400749</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>612.4311299055728</v>
       </c>
       <c r="E31" t="n">
         <v>484.8112968429803</v>
@@ -6625,46 +6625,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797781</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832666</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487571</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510512</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.38585385471</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648823</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611862</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138447</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703146</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1958.090220510648</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1703.405732304761</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6974,10 +6974,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>302.4387812932949</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>135.2426820081749</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362676</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7849,7 +7849,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405064</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.73700564187249</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>144.6341900408538</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>20.09032791460257</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>267.0073229893824</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.11969353038614</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,19 +25549,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>99.2829540756229</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>24.63391537253443</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>760639.3159085389</v>
+        <v>760639.315908539</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>760639.315908539</v>
+        <v>760639.3159085389</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="C2" t="n">
+        <v>677359.4601380337</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380342</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380342</v>
-      </c>
-      <c r="D2" t="n">
-        <v>677359.460138034</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253095</v>
+        <v>270592.3620253123</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231969</v>
+        <v>115410.0540231927</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.207574264</v>
+        <v>601443.2075742652</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.6376588191</v>
+        <v>62913.63765881975</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197581</v>
+        <v>27875.25362197481</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515977</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.422926347</v>
+        <v>206604.4229263462</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888974</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26430,34 +26430,34 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186735</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.6960418674</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936797</v>
+        <v>76435.73471936821</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587233</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-249519.8076285547</v>
+        <v>-249519.8076285552</v>
       </c>
       <c r="C6" t="n">
-        <v>123726.9404670097</v>
+        <v>123726.940467007</v>
       </c>
       <c r="D6" t="n">
-        <v>302547.3341700673</v>
+        <v>302547.3341700715</v>
       </c>
       <c r="E6" t="n">
-        <v>-51496.48869578381</v>
+        <v>-51531.22662122008</v>
       </c>
       <c r="F6" t="n">
-        <v>549946.7188784806</v>
+        <v>549911.9809530447</v>
       </c>
       <c r="G6" t="n">
-        <v>549946.71887848</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="H6" t="n">
-        <v>549946.7188784804</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="I6" t="n">
-        <v>549946.7188784805</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="J6" t="n">
-        <v>500881.7741499358</v>
+        <v>500847.0362245</v>
       </c>
       <c r="K6" t="n">
-        <v>487033.0812196617</v>
+        <v>486998.3432942249</v>
       </c>
       <c r="L6" t="n">
-        <v>522071.4652565047</v>
+        <v>522036.72733107</v>
       </c>
       <c r="M6" t="n">
-        <v>392800.3383268826</v>
+        <v>392765.6004014468</v>
       </c>
       <c r="N6" t="n">
-        <v>549946.7188784804</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="O6" t="n">
-        <v>549946.7188784805</v>
+        <v>549911.9809530448</v>
       </c>
       <c r="P6" t="n">
-        <v>549946.7188784803</v>
+        <v>549911.9809530451</v>
       </c>
     </row>
   </sheetData>
@@ -26710,13 +26710,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950593</v>
+        <v>758.8996292950617</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376851</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594685</v>
+        <v>431.9757039594713</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261643</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821547</v>
+        <v>210.4296883821569</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262585</v>
+        <v>94.81103524262244</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039886</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931487</v>
+        <v>244.4501167931513</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666958</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="E4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931486</v>
+        <v>244.4501167931513</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666958</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931487</v>
+        <v>244.4501167931513</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666958</v>
+        <v>110.1392527666919</v>
       </c>
       <c r="M4" t="n">
-        <v>630.593331373484</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>256.7309575359355</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666373</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>139.0484721057026</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988671</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871047</v>
+        <v>63.64367339871027</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.4328956284632</v>
+        <v>72.43289562846316</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681157</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377086</v>
       </c>
       <c r="V3" t="n">
-        <v>163.9255879387734</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>86.52244598482486</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.1571086109843</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.6160339275029</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825418</v>
+        <v>57.06999962825414</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>18.10760906709382</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159726</v>
+        <v>16.47009429716256</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>16.60483332139961</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>2.602017752052802</v>
-      </c>
       <c r="H5" t="n">
-        <v>308.2302560714736</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760077</v>
+        <v>92.8578877276004</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149289</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7111670171797</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246135</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937532</v>
+        <v>43.32085084937514</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074826</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>36.44991063792693</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>202.838775390468</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.1950330004637</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599131</v>
+        <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304078</v>
+        <v>30.24193919304048</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589189</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166226</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
-        <v>222.0983299894507</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>152.8107596480267</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>90.07063468035091</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>134.7661645223925</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904878</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721419</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>172.486238366054</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27998,7 +27998,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>92.12789526753883</v>
       </c>
     </row>
     <row r="10">
@@ -28011,16 +28011,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>135.5663557888582</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28032,7 +28032,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923912</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425539</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>109.4273643262883</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29481,7 +29481,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -29697,7 +29697,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085663</v>
+        <v>3.050852781085673</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429356</v>
+        <v>31.24454604429365</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428051</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286695</v>
+        <v>258.9373162286703</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520257</v>
+        <v>388.079914452027</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511762</v>
+        <v>481.4474502511777</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968084</v>
+        <v>535.70305339681</v>
       </c>
       <c r="N5" t="n">
-        <v>544.371288861068</v>
+        <v>544.3712888610697</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191474</v>
+        <v>514.0343715191491</v>
       </c>
       <c r="P5" t="n">
-        <v>438.716443486095</v>
+        <v>438.7164434860965</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634647</v>
+        <v>329.4577782634657</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098725</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898961</v>
+        <v>69.52130774898984</v>
       </c>
       <c r="T5" t="n">
-        <v>13.3551080492025</v>
+        <v>13.35510804920254</v>
       </c>
       <c r="U5" t="n">
-        <v>0.244068222486853</v>
+        <v>0.2440682224868538</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030882</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.7650658840351</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062468</v>
+        <v>56.20152915062486</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475932</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316623</v>
+        <v>263.5887514316631</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721879</v>
+        <v>354.427605172189</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658073</v>
+        <v>413.6002979658086</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468653</v>
+        <v>424.5470671468667</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374442</v>
+        <v>388.3776244374454</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872481</v>
+        <v>311.707283587249</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547491</v>
+        <v>208.3680642547498</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632157</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947711</v>
+        <v>30.32018801947721</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378861</v>
+        <v>6.579516597378881</v>
       </c>
       <c r="U6" t="n">
-        <v>0.107391456975716</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236992</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377981</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734519</v>
+        <v>41.15475366734532</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635533</v>
+        <v>96.75348224635563</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260796</v>
+        <v>158.9956928260801</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162525</v>
+        <v>203.4597465162531</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399132</v>
+        <v>214.5197755399139</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528482</v>
+        <v>209.4189747528489</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275342</v>
+        <v>193.4323186275348</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514994</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.593844023554</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054692</v>
+        <v>61.53307486054711</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391193</v>
+        <v>23.84935392391201</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830783</v>
+        <v>5.847259438830801</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656328</v>
+        <v>0.07464586517656352</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508279</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958417</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933231</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409261</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258717</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840433</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934787</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839016</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.253840119091</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662303</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.61767849284</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141322</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699499</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.0235916945275</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464135</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095122</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076064</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913581</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616803</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730384</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152849</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.898513388451</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475636</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349509</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867498</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053863</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057852</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526973</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619437</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017481</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>108.841112100157</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368738</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420142</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595399</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099895</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451905</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153097</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735642</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978883</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32075,22 +32075,22 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007818</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32248,10 +32248,10 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
         <v>593.8732233669223</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,28 +32786,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,25 +33029,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,7 +33269,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>433.9798411722591</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>433.9798411722591</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,13 +33655,13 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>750.6021172789107</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646077</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061152</v>
+        <v>16.11138312061158</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520826</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198326</v>
+        <v>77.89141170198405</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070452</v>
+        <v>167.9900634070464</v>
       </c>
       <c r="L5" t="n">
-        <v>245.681035281189</v>
+        <v>245.6810352811905</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695357</v>
+        <v>305.3568201695373</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644771</v>
+        <v>314.9582252644788</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974606</v>
+        <v>283.9361600974623</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308255</v>
+        <v>207.4834477308269</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890152</v>
+        <v>107.1520883890162</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092648</v>
+        <v>27.38366498092697</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573033</v>
+        <v>125.7473124573041</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923137</v>
+        <v>215.8732253923148</v>
       </c>
       <c r="M6" t="n">
-        <v>271.466264043789</v>
+        <v>271.4662640437903</v>
       </c>
       <c r="N6" t="n">
-        <v>293.205355063532</v>
+        <v>293.2053550635334</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799929997</v>
+        <v>245.7813799930009</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729178</v>
+        <v>177.7328761729188</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872761</v>
+        <v>68.38629016872827</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554421</v>
+        <v>29.98243465554469</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501418</v>
+        <v>68.57507023501483</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230813</v>
+        <v>75.59399159230881</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761502</v>
+        <v>81.73343028761568</v>
       </c>
       <c r="O7" t="n">
-        <v>54.9757801756914</v>
+        <v>54.97578017569199</v>
       </c>
       <c r="P7" t="n">
-        <v>27.7867610023518</v>
+        <v>27.78676100235231</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142398</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808911</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140561</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.283405866206</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873107</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974043</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109608</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183905</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409397</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169991</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818061</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.13827825102</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319515</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440066</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332334</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892935</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850744</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563556</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806458</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.896613176781</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769708</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084184</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563374</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010463</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35896,10 +35896,10 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>291.8458072502408</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191352</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
         <v>426.2724270010451</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>291.8458072502408</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>619.2604051955774</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
